--- a/Data/OtherTemplates/PayArena_ExternalConfig.xlsx
+++ b/Data/OtherTemplates/PayArena_ExternalConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmpa11194\Documents\_BotWorkDirectories\PayArena_WorkDirectories\ExternalConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58343E05-E5EB-4412-9967-3E4658D178A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861D34DF-41A9-40DF-825D-B9118DFAA56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{533A41B4-224A-4779-A5C7-3E4B46218A92}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemSettings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -111,9 +111,6 @@
     <t>PAYARENA TSF RVSL</t>
   </si>
   <si>
-    <t>PAYARENA TRF SETTL(Payattitude CR 999 MaskedPan)</t>
-  </si>
-  <si>
     <t>PAYARENA TRF SETTL(Payattitude DR MaskedPan)</t>
   </si>
   <si>
@@ -226,6 +223,21 @@
   </si>
   <si>
     <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>PAYATTITUDE TraAmt 901102</t>
+  </si>
+  <si>
+    <t>PAYATTITUDE  Issuer Vat</t>
+  </si>
+  <si>
+    <t>PAYATTITUDE  Issuer Fee</t>
+  </si>
+  <si>
+    <t>PAYATTITUDE  Actual Amt</t>
+  </si>
+  <si>
+    <t>PAYATTITUDE  FEE</t>
   </si>
 </sst>
 </file>
@@ -651,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036370E-F23C-4C8F-95FD-ABF3B0AE06C5}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -675,7 +687,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -721,82 +733,82 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,10 +846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17946D-D254-4832-99C9-3D13A2E65ADA}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +869,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8">
         <v>2023293085</v>
@@ -865,7 +877,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="8">
         <v>2023293085</v>
@@ -897,7 +909,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8">
         <v>2023293085</v>
@@ -905,15 +917,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
-        <v>48910111000201</v>
+        <v>48933104000101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8">
         <v>48933104000101</v>
@@ -921,55 +933,55 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8">
-        <v>48933104000101</v>
+        <v>48934389034001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8">
-        <v>48934389031301</v>
+        <v>48934389034101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8">
-        <v>48934389031301</v>
+        <v>48934389034201</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8">
-        <v>48934389033901</v>
+        <v>48934389034301</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8">
-        <v>48934389034001</v>
+        <v>48934389034301</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>48934389034101</v>
+        <v>48934389034301</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8">
         <v>48934389034201</v>
@@ -977,87 +989,87 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8">
-        <v>48934389034201</v>
+        <v>48934389034301</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8">
-        <v>48934389034201</v>
+        <v>48910111000201</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8">
-        <v>48934389034301</v>
+        <v>48934389037401</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8">
-        <v>48934389034301</v>
+        <v>48934389042101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8">
-        <v>48934389034301</v>
+        <v>48934389042201</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="8">
-        <v>48934389034301</v>
+        <v>48957000007101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B23" s="8">
-        <v>48934389037401</v>
+        <v>48934389031301</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8">
-        <v>48934389042101</v>
+        <v>48934389031301</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B25" s="8">
-        <v>48934389042201</v>
+        <v>48934389033901</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B26" s="8">
-        <v>48957000007101</v>
+        <v>48957000007501</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8">
         <v>48957000007501</v>
@@ -1065,20 +1077,52 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8">
-        <v>48957000007501</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
+      </c>
+      <c r="B29" s="8">
+        <v>48934389031301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="8">
+        <v>48933104000101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="8">
+        <v>48934389042201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="8">
+        <v>48934389042101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8">
+        <v>48957000007801</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
-    <sortCondition ref="B2:B28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
+    <sortCondition ref="B2:B27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
